--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="260">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -685,6 +685,36 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -883,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -893,7 +923,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -971,7 +1001,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -980,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -990,7 +1020,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1076,7 +1106,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1085,21 +1115,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,50 +1931,50 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
         <v>232</v>
       </c>
@@ -1970,75 +2000,115 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>244</v>
-      </c>
       <c r="B111" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="264">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -625,6 +625,18 @@
   </si>
   <si>
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
@@ -920,10 +932,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B89:C89 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1017,10 +1029,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B89:C89 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1119,13 +1131,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89:C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
@@ -1883,7 +1895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>209</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
         <v>211</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>213</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>215</v>
       </c>
@@ -1971,26 +1983,26 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
         <v>236</v>
       </c>
@@ -2040,23 +2052,23 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>252</v>
@@ -2064,16 +2076,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>254</v>
-      </c>
       <c r="B116" s="0" t="s">
         <v>255</v>
       </c>
@@ -2083,26 +2092,45 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="B118" s="0" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>259</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -198,43 +198,7 @@
     <t xml:space="preserve">read(slaveID,register)</t>
   </si>
   <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readSigned(slaveId,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readBCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32Signed(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32BCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readFloat(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -983,7 +947,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1080,7 +1044,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1179,17 +1143,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C103" activeCellId="0" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,15 +1262,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>61</v>
       </c>
@@ -1314,7 +1278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>63</v>
       </c>
@@ -1322,7 +1286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>65</v>
       </c>
@@ -1330,7 +1294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>67</v>
       </c>
@@ -1338,7 +1302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>69</v>
       </c>
@@ -1346,15 +1310,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>73</v>
       </c>
@@ -1362,7 +1326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>75</v>
       </c>
@@ -1371,66 +1335,66 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="B30" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -1477,8 +1441,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1487,107 +1451,107 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>118</v>
+      <c r="B45" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>120</v>
+      <c r="B46" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>123</v>
+      <c r="B47" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>125</v>
+      <c r="B48" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="B49" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="C49" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="B50" s="0" t="s">
         <v>130</v>
       </c>
@@ -1620,121 +1584,121 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="B54" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="B60" s="0" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="B65" s="0" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,38 +1710,44 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="0" t="s">
         <v>163</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C71" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="B72" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
         <v>171</v>
       </c>
@@ -1794,23 +1764,23 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="B75" s="0" t="s">
         <v>175</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>176</v>
+      <c r="B76" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -1818,52 +1788,46 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>189</v>
       </c>
@@ -1871,7 +1835,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>191</v>
       </c>
@@ -1879,7 +1843,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>193</v>
       </c>
@@ -1887,7 +1851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>195</v>
       </c>
@@ -1895,7 +1859,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
         <v>197</v>
       </c>
@@ -1967,7 +1931,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>215</v>
       </c>
@@ -1975,7 +1939,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
         <v>217</v>
       </c>
@@ -2015,7 +1979,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>227</v>
       </c>
@@ -2023,7 +1987,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
         <v>229</v>
       </c>
@@ -2063,58 +2027,58 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>239</v>
+      </c>
       <c r="B108" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="B114" s="0" t="s">
         <v>252</v>
       </c>
@@ -2132,120 +2096,71 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="B120" s="0" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
+      <c r="C120" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="284">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -198,7 +198,43 @@
     <t xml:space="preserve">read(slaveID,register)</t>
   </si>
   <si>
-    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(slaveId,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -330,6 +366,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
   </si>
   <si>
+    <t xml:space="preserve">powerReset([sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE resets the power counter of the Yocto-Watt module</t>
+  </si>
+  <si>
     <t xml:space="preserve">slider(c,v)</t>
   </si>
   <si>
@@ -340,6 +382,12 @@
   </si>
   <si>
     <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">Hottop Heater</t>
@@ -947,7 +995,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1044,7 +1092,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1143,17 +1191,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C103" activeCellId="0" sqref="C103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,15 +1310,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>61</v>
       </c>
@@ -1278,7 +1326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>63</v>
       </c>
@@ -1286,7 +1334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>65</v>
       </c>
@@ -1294,7 +1342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>67</v>
       </c>
@@ -1302,7 +1350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>69</v>
       </c>
@@ -1310,15 +1358,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>73</v>
       </c>
@@ -1326,7 +1374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>75</v>
       </c>
@@ -1335,66 +1383,66 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="0" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -1441,8 +1489,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1451,59 +1499,53 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>106</v>
+      <c r="B39" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>108</v>
+      <c r="B40" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>111</v>
+      <c r="B41" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="C42" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="B43" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="C43" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="B44" s="0" t="s">
         <v>118</v>
       </c>
@@ -1513,61 +1555,67 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="0" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
         <v>134</v>
       </c>
@@ -1584,170 +1632,164 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="B59" s="0" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>154</v>
+      </c>
       <c r="B62" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="B67" s="0" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>163</v>
+      <c r="B69" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>164</v>
+      <c r="B70" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>165</v>
+      <c r="B71" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="B72" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="B73" s="0" t="s">
         <v>171</v>
       </c>
@@ -1773,30 +1815,30 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>177</v>
+      <c r="A77" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>179</v>
+      <c r="A78" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="0" t="s">
         <v>181</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -1804,46 +1846,52 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>183</v>
+      </c>
       <c r="B80" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>186</v>
+      </c>
       <c r="B81" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>193</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>195</v>
       </c>
@@ -1859,7 +1907,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
         <v>197</v>
       </c>
@@ -1867,7 +1915,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
         <v>199</v>
       </c>
@@ -1875,7 +1923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>201</v>
       </c>
@@ -1931,7 +1979,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>215</v>
       </c>
@@ -1939,7 +1987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
         <v>217</v>
       </c>
@@ -1995,7 +2043,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
         <v>231</v>
       </c>
@@ -2003,7 +2051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
         <v>233</v>
       </c>
@@ -2027,138 +2075,202 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="B120" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">variable holding the last value read via MODBUS</t>
   </si>
   <si>
-    <t xml:space="preserve">^</t>
+    <t xml:space="preserve">$</t>
   </si>
   <si>
     <t xml:space="preserve">variable holding the last state of the button pressed (1 or 0)</t>
@@ -430,6 +430,9 @@
     <t xml:space="preserve">IO Command</t>
   </si>
   <si>
+    <t xml:space="preserve">variable holding the last result value</t>
+  </si>
+  <si>
     <t xml:space="preserve">set(c,b[,sn])</t>
   </si>
   <si>
@@ -482,6 +485,12 @@
   </si>
   <si>
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
   </si>
   <si>
     <t xml:space="preserve">flip(c[,sn])</t>
@@ -1148,11 +1157,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1252,10 +1261,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="B45:C45 B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -1373,10 +1382,10 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1524,17 +1533,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="105.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,498 +1809,495 @@
         <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="3" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="C70" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="B72" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="B75" s="3" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C92" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="3" t="s">
         <v>235</v>
       </c>
@@ -2300,363 +2306,366 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>237</v>
+      </c>
       <c r="B94" s="3" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C129" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="C130" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="B132" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>320</v>
@@ -2672,77 +2681,93 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="B142" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C142" s="0" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="B144" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>95</v>
+        <v>330</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="357">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -169,6 +169,30 @@
     <t xml:space="preserve">Event name (translated if using default event names)</t>
   </si>
   <si>
+    <t xml:space="preserve">\\q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">\\0</t>
   </si>
   <si>
@@ -241,6 +265,42 @@
     <t xml:space="preserve">OPEN (translated, respecting button state)</t>
   </si>
   <si>
+    <t xml:space="preserve">\\a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLING</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
@@ -803,6 +863,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -1158,10 +1224,10 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1261,10 +1327,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="B45:C45 B24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -1379,13 +1445,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1515,6 +1581,86 @@
       </c>
       <c r="B17" s="0" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1533,13 +1679,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45:C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
@@ -1548,32 +1694,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -1589,1185 +1735,1193 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="3" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="3" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="3" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="3" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="B132" s="3" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="B133" s="3" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="3" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="3" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="3" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="B144" s="3" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>91</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>351</v>
+      </c>
       <c r="B145" s="3" t="s">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>331</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>93</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>332</v>
+        <v>114</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="3" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>334</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -169,30 +169,6 @@
     <t xml:space="preserve">Event name (translated if using default event names)</t>
   </si>
   <si>
-    <t xml:space="preserve">\\q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event type 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event type 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">\\0</t>
   </si>
   <si>
@@ -265,42 +241,6 @@
     <t xml:space="preserve">OPEN (translated, respecting button state)</t>
   </si>
   <si>
-    <t xml:space="preserve">\\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUAL (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUAL (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLING</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
@@ -863,12 +803,6 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets the PID target set value SV given in C</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -1224,10 +1158,10 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1327,10 +1261,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="B45:C45 B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -1445,13 +1379,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1581,86 +1515,6 @@
       </c>
       <c r="B17" s="0" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1679,13 +1533,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
@@ -1694,32 +1548,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -1735,1193 +1589,1185 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="3" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>306</v>
+      </c>
       <c r="B132" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="B133" s="3" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
-        <v>343</v>
+        <v>197</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
-        <v>348</v>
+        <v>206</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="B144" s="3" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="B145" s="3" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>111</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>354</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="3" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Options" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Labels" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Commands" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Commands" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="285">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Button numbers can be drag and dropped to a new position. While holding the ALT key (Windows) / OPTION (macOS) buttons are swapped\n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Column</t>
   </si>
   <si>
@@ -103,18 +99,6 @@
     <t xml:space="preserve">Applies one of 99 autogenerated color patterns to the buttons.  Set to "0" to manually choose the button colors.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark Last Pressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invert state and color of last button pressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooltips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show button specification as tooltips on hoovering a button</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add</t>
   </si>
   <si>
@@ -145,102 +129,6 @@
     <t xml:space="preserve">Opens this window.</t>
   </si>
   <si>
-    <t xml:space="preserve">LABELS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:The following substitutions are applied to button labels\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New line character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event name (translated if using default event names)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF (translated, resepecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOP (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOP (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSE (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN (translated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSE (translated, respecting button state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN (translated, respecting button state)</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
@@ -295,36 +183,18 @@
     <t xml:space="preserve">variable holding the last value read via MODBUS</t>
   </si>
   <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable holding the last state of the button pressed (1 or 0)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sleep(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sleep: add a delay of &lt;float&gt; seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">button(i,b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
-  </si>
-  <si>
     <t xml:space="preserve">button(&lt;bool&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
   </si>
   <si>
-    <t xml:space="preserve">button()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggles the state of the button</t>
-  </si>
-  <si>
     <t xml:space="preserve">read(slaveID,register)</t>
   </si>
   <si>
@@ -430,9 +300,6 @@
     <t xml:space="preserve">IO Command</t>
   </si>
   <si>
-    <t xml:space="preserve">variable holding the last result value</t>
-  </si>
-  <si>
     <t xml:space="preserve">set(c,b[,sn])</t>
   </si>
   <si>
@@ -487,12 +354,6 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
-    <t xml:space="preserve">yset(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -520,13 +381,7 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
   </si>
   <si>
     <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
@@ -535,12 +390,6 @@
     <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hottop Heater</t>
   </si>
   <si>
@@ -859,10 +708,10 @@
     <t xml:space="preserve">resets canvas color</t>
   </si>
   <si>
-    <t xml:space="preserve">button(&lt;name&gt;|&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } ; sets calling button to “pressed” if argument is 1 or True</t>
+    <t xml:space="preserve">button(&lt;name&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
   </si>
   <si>
     <t xml:space="preserve">palette(&lt;p&gt;)</t>
@@ -1117,12 +966,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1155,15 +1000,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
   </cols>
   <sheetData>
@@ -1172,76 +1017,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1258,109 +1097,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="B45:C45 B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1379,1395 +1202,1089 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B45:C45 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C150"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45:C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C29" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B30" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C32" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+    <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
+      <c r="C49" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B52" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
+      <c r="C52" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
+      <c r="C53" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
+      <c r="C54" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
+      <c r="C55" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+      <c r="C56" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="s">
+      <c r="C57" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
+      <c r="C58" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
+      <c r="C59" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="s">
+      <c r="C60" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="s">
+      <c r="C61" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="B81" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
+      <c r="C81" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
+      <c r="C82" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="s">
+      <c r="C83" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
+      <c r="C85" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3" t="s">
+      <c r="C86" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3" t="s">
+      <c r="C87" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="s">
+      <c r="C88" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3" t="s">
+      <c r="C89" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="3" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C92" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C105" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="3" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="3" t="s">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="3" t="s">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="3" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="3" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="3" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="3" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="3" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="3" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="3" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="B116" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="3" t="s">
+      <c r="C116" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="3" t="s">
+      <c r="C117" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="3" t="s">
+      <c r="C118" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="3" t="s">
+      <c r="C119" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="3" t="s">
+      <c r="C120" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="3" t="s">
+      <c r="C121" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="3" t="s">
+      <c r="C122" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="3" t="s">
+      <c r="C123" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="3" t="s">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C125" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="3" t="s">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C126" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="3" t="s">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C128" s="0" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="3" t="s">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C120" s="0" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="3" t="s">
+      <c r="C131" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Options" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Commands" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Labels" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Commands" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,11 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="357">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
   <si>
+    <t xml:space="preserve">tn:Button numbers can be drag and dropped to a new position. While holding the ALT key (Windows) / OPTION (macOS) buttons are swapped\n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column</t>
   </si>
   <si>
@@ -99,6 +103,18 @@
     <t xml:space="preserve">Applies one of 99 autogenerated color patterns to the buttons.  Set to "0" to manually choose the button colors.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mark Last Pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert state and color of last button pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show button specification as tooltips on hoovering a button</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add</t>
   </si>
   <si>
@@ -129,6 +145,162 @@
     <t xml:space="preserve">Opens this window.</t>
   </si>
   <si>
+    <t xml:space="preserve">LABELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:The following substitutions are applied to button labels\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New line character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event name (translated if using default event names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (translated, resepecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLING</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
@@ -183,18 +355,36 @@
     <t xml:space="preserve">variable holding the last value read via MODBUS</t>
   </si>
   <si>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable holding the last state of the button pressed (1 or 0)</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sleep: add a delay of &lt;float&gt; seconds</t>
   </si>
   <si>
+    <t xml:space="preserve">button(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">button(&lt;bool&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
   </si>
   <si>
+    <t xml:space="preserve">button()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the state of the button</t>
+  </si>
+  <si>
     <t xml:space="preserve">read(slaveID,register)</t>
   </si>
   <si>
@@ -300,6 +490,9 @@
     <t xml:space="preserve">IO Command</t>
   </si>
   <si>
+    <t xml:space="preserve">variable holding the last result value</t>
+  </si>
+  <si>
     <t xml:space="preserve">set(c,b[,sn])</t>
   </si>
   <si>
@@ -354,6 +547,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -381,7 +580,13 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
   </si>
   <si>
     <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
@@ -390,6 +595,12 @@
     <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hottop Heater</t>
   </si>
   <si>
@@ -654,6 +865,12 @@
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
+  </si>
+  <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
   </si>
   <si>
@@ -708,10 +925,10 @@
     <t xml:space="preserve">resets canvas color</t>
   </si>
   <si>
-    <t xml:space="preserve">button(&lt;name&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
+    <t xml:space="preserve">button(&lt;name&gt;|&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } ; sets calling button to “pressed” if argument is 1 or True</t>
   </si>
   <si>
     <t xml:space="preserve">palette(&lt;p&gt;)</t>
@@ -966,8 +1183,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1000,15 +1221,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
   </cols>
   <sheetData>
@@ -1017,70 +1238,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1097,93 +1324,109 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
+      <c r="A8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+      <c r="A9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
+      <c r="A10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1202,1089 +1445,1483 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>53</v>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>55</v>
+      <c r="B13" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>58</v>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>59</v>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>61</v>
+      <c r="B16" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>63</v>
+      <c r="B17" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>65</v>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
-        <v>67</v>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
-        <v>69</v>
+      <c r="B20" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>71</v>
+      <c r="B21" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
-        <v>73</v>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>75</v>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
-        <v>77</v>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
-        <v>79</v>
+      <c r="B25" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
-        <v>81</v>
+      <c r="B26" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>83</v>
+      <c r="B27" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
-        <v>85</v>
+      <c r="B28" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
-        <v>87</v>
+      <c r="B29" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>90</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>92</v>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
-        <v>94</v>
+      <c r="B32" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>97</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
-        <v>98</v>
+      <c r="A34" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
-        <v>100</v>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>102</v>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
-        <v>104</v>
+      <c r="B37" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>106</v>
+      <c r="B38" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
-        <v>108</v>
+      <c r="B39" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
-        <v>110</v>
+      <c r="B40" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
-        <v>141</v>
+      <c r="B55" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
-        <v>143</v>
+      <c r="B56" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>194</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="2" t="s">
-        <v>151</v>
+      <c r="A60" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>154</v>
+      <c r="A61" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2" t="s">
-        <v>158</v>
+      <c r="B63" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
-        <v>160</v>
+      <c r="B64" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
-        <v>162</v>
+      <c r="B65" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
-        <v>53</v>
+      <c r="B66" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>51</v>
+      <c r="B67" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="s">
-        <v>53</v>
+      <c r="B68" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
-        <v>55</v>
+      <c r="B69" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2" t="s">
-        <v>166</v>
+      <c r="B70" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="2" t="s">
-        <v>168</v>
+      <c r="B71" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="s">
-        <v>170</v>
+      <c r="A72" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
-        <v>172</v>
+      <c r="B73" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="2" t="s">
-        <v>174</v>
+      <c r="B74" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="2" t="s">
-        <v>176</v>
+      <c r="B75" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="2" t="s">
-        <v>178</v>
+      <c r="B76" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>234</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>181</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>186</v>
+      <c r="B80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>188</v>
+      <c r="B81" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2" t="s">
-        <v>190</v>
+      <c r="B82" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
-        <v>192</v>
+      <c r="B83" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C83" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="0" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="s">
-        <v>208</v>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>252</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="2" t="s">
-        <v>210</v>
+      <c r="A93" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="2" t="s">
-        <v>212</v>
+      <c r="A94" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="2" t="s">
-        <v>214</v>
+      <c r="B95" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="s">
-        <v>216</v>
+      <c r="B96" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C96" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="2" t="s">
+      <c r="C141" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>284</v>
+      <c r="C144" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="250">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -627,18 +627,6 @@
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
   </si>
   <si>
-    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
   </si>
   <si>
@@ -697,36 +685,6 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -925,17 +883,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B89:C89 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1013,7 +971,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1022,17 +980,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B89:C89 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1118,7 +1076,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1127,21 +1085,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89:C89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1853,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>209</v>
       </c>
@@ -1903,7 +1861,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
         <v>211</v>
       </c>
@@ -1911,7 +1869,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>213</v>
       </c>
@@ -1919,7 +1877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>215</v>
       </c>
@@ -1943,66 +1901,66 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="B99" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>235</v>
-      </c>
       <c r="B106" s="0" t="s">
         <v>236</v>
       </c>
@@ -2012,131 +1970,75 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="B111" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="250">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -685,36 +685,6 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -913,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -923,7 +893,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1001,7 +971,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1010,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1020,7 +990,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1106,7 +1076,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1115,21 +1085,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,50 +1901,50 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="B99" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="B104" s="0" t="s">
         <v>232</v>
       </c>
@@ -2000,115 +1970,75 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="B111" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="252">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -691,30 +691,6 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -923,7 +899,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1020,7 +996,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
@@ -1119,13 +1095,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
@@ -1939,42 +1915,42 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="B100" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="B104" s="0" t="s">
         <v>232</v>
       </c>
@@ -2008,39 +1984,42 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="B112" s="0" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>248</v>
@@ -2048,63 +2027,29 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Options" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Commands" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Labels" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Commands" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,11 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="366">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
   <si>
+    <t xml:space="preserve">tn:Button numbers can be drag and dropped to a new position. While holding the ALT key (Windows) / OPTION (macOS) buttons are swapped\n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column</t>
   </si>
   <si>
@@ -99,6 +103,18 @@
     <t xml:space="preserve">Applies one of 99 autogenerated color patterns to the buttons.  Set to "0" to manually choose the button colors.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mark Last Pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert state and color of last button pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show button specification as tooltips on hovering a button</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add</t>
   </si>
   <si>
@@ -129,22 +145,196 @@
     <t xml:space="preserve">Opens this window.</t>
   </si>
   <si>
+    <t xml:space="preserve">LABELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:The following substitutions are applied to button labels\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New line character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event name (translated if using default event names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL (translated, respecting button state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIRRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLING</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by the current button value plus the offset for \u00B1 event types.  If a placeholder occurs several times in a description/command, all those occurrences are replaced by the value.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: in PHIDGET commands, the optional parameter &lt;sn&gt; has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;] allows to refer to a specific Phidget HUB by given its serial number, and optionally specifying the port number the addressed module is connected to.\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: in YOCTOPUCE commands, the optional parameter &lt;sn&gt; holds either the modules serial number or its name</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: Commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: All characters given as documentation to a Serial Command action are sent as one string to the connected device. If the device can interpret this string as separate commands separated by semicolon this is fine. Otherwise you can use a Multiple Event referencing a number of event buttons (using a comma separated list of event button numbers as documentation string) where each of the referenced event buttons issues one of the commands via a corresponding Serial Command action. Those event buttons can be hidden thus having the same effect as if the Serial Command allowed a sequence of commands.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: In PHIDGET commands, the optional parameter &lt;sn&gt; has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;] allows to refer to a specific Phidget HUB by given its serial number, and optionally specifying the port number the addressed module is connected to.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: In YOCTOPUCE commands, the optional parameter &lt;sn&gt; holds either the modules serial number or its name</t>
   </si>
   <si>
     <t xml:space="preserve">Command</t>
@@ -168,7 +358,37 @@
     <t xml:space="preserve">Multiple Event</t>
   </si>
   <si>
-    <t xml:space="preserve">button numbers separated by a comma: 1,2,..</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">button numbers or </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sleep(&lt;float&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> separated by a comma: 1,2,sleep(2.5), 3..</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">triggers other buttons</t>
@@ -183,22 +403,76 @@
     <t xml:space="preserve">variable holding the last value read via MODBUS</t>
   </si>
   <si>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable holding the last state of the button pressed (1 or 0)</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sleep: add a delay of &lt;float&gt; seconds</t>
   </si>
   <si>
+    <t xml:space="preserve">button(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">button(&lt;bool&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
   </si>
   <si>
+    <t xml:space="preserve">button()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the state of the button</t>
+  </si>
+  <si>
     <t xml:space="preserve">read(slaveID,register)</t>
   </si>
   <si>
-    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(slaveId,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -243,6 +517,12 @@
     <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
+    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
   </si>
   <si>
@@ -258,6 +538,9 @@
     <t xml:space="preserve">IO Command</t>
   </si>
   <si>
+    <t xml:space="preserve">variable holding the last result value</t>
+  </si>
+  <si>
     <t xml:space="preserve">set(c,b[,sn])</t>
   </si>
   <si>
@@ -312,6 +595,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -324,6 +613,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
   </si>
   <si>
+    <t xml:space="preserve">powerReset([sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE resets the power counter of the Yocto-Watt module</t>
+  </si>
+  <si>
     <t xml:space="preserve">slider(c,v)</t>
   </si>
   <si>
@@ -333,7 +628,25 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">Hottop Heater</t>
@@ -360,6 +673,9 @@
     <t xml:space="preserve">p-i-d</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;;&lt;i&gt;;&lt;d&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">configures PID to the values &lt;p&gt;;&lt;i&gt;;&lt;d&gt;</t>
   </si>
   <si>
@@ -597,6 +913,12 @@
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
+  </si>
+  <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
   </si>
   <si>
@@ -627,6 +949,18 @@
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
   </si>
   <si>
+    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
   </si>
   <si>
@@ -639,10 +973,19 @@
     <t xml:space="preserve">resets canvas color</t>
   </si>
   <si>
-    <t xml:space="preserve">button(&lt;name&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
+    <t xml:space="preserve">sets button i to pressed if value of b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(&lt;name&gt;|&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } ; sets calling button to “pressed” if argument is 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visible(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to visible if value of b is yes, true, t, or 1, otherwise to hidden</t>
   </si>
   <si>
     <t xml:space="preserve">palette(&lt;p&gt;)</t>
@@ -691,6 +1034,36 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keepON(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables the Keep ON flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -787,7 +1160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,6 +1185,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -868,11 +1249,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,85 +1274,90 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -990,93 +1376,109 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1095,961 +1497,1522 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C153"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>69</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>73</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>84</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>94</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>96</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>158</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>100</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>111</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="C78" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>191</v>
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>193</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>195</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>197</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
-        <v>209</v>
+    </row>
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>258</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>211</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>213</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>215</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>217</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>219</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>221</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
+      <c r="C143" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C146" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="367">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -301,6 +301,9 @@
     <t xml:space="preserve">FILL</t>
   </si>
   <si>
+    <t xml:space="preserve">\\R</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELEASE</t>
   </si>
   <si>
@@ -322,16 +325,19 @@
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by the current button value plus the offset for \u00B1 event types.  If a placeholder occurs several times in a description/command, all those occurrences are replaced by the value.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: in PHIDGET commands, the optional parameter &lt;sn&gt; has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;] allows to refer to a specific Phidget HUB by given its serial number, and optionally specifying the port number the addressed module is connected to.\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: in YOCTOPUCE commands, the optional parameter &lt;sn&gt; holds either the modules serial number or its name</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: Commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: All characters given as documentation to a Serial Command action are sent as one string to the connected device. If the device can interpret this string as separate commands separated by semicolon this is fine. Otherwise you can use a Multiple Event referencing a number of event buttons (using a comma separated list of event button numbers as documentation string) where each of the referenced event buttons issues one of the commands via a corresponding Serial Command action. Those event buttons can be hidden thus having the same effect as if the Serial Command allowed a sequence of commands.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: In PHIDGET commands, the optional parameter &lt;sn&gt; has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;] allows to refer to a specific Phidget HUB by given its serial number, and optionally specifying the port number the addressed module is connected to.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: In YOCTOPUCE commands, the optional parameter &lt;sn&gt; holds either the modules serial number or its name</t>
   </si>
   <si>
     <t xml:space="preserve">Command</t>
@@ -970,10 +976,19 @@
     <t xml:space="preserve">resets canvas color</t>
   </si>
   <si>
+    <t xml:space="preserve">sets button i to pressed if value of b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">button(&lt;name&gt;|&lt;bool&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } ; sets calling button to “pressed” if argument is 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visible(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to visible if value of b is yes, true, t, or 1, otherwise to hidden</t>
   </si>
   <si>
     <t xml:space="preserve">palette(&lt;p&gt;)</t>
@@ -1228,12 +1243,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,23 +1283,23 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
@@ -1374,18 +1385,18 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
@@ -1393,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>28</v>
       </c>
@@ -1433,40 +1444,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -1492,22 +1503,22 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>42</v>
       </c>
@@ -1515,220 +1526,220 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1747,473 +1758,470 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="s">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="s">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="s">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="s">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="s">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="s">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="s">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="s">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="s">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="s">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="s">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C55" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="s">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>199</v>
       </c>
@@ -2221,775 +2229,791 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="s">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3" t="s">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3" t="s">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="s">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3" t="s">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="s">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3" t="s">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3" t="s">
-        <v>117</v>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3" t="s">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3" t="s">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3" t="s">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3" t="s">
-        <v>241</v>
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="s">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="s">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3" t="s">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C93" s="0" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="B94" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C94" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="3" t="s">
         <v>263</v>
       </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C95" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="3" t="s">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="3" t="s">
-        <v>117</v>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="3" t="s">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="3" t="s">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="3" t="s">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="3" t="s">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="3" t="s">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="3" t="s">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="3" t="s">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="3" t="s">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="3" t="s">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="3" t="s">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
         <v>291</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="3" t="s">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="3" t="s">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="3" t="s">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="3" t="s">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="3" t="s">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="3" t="s">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="3" t="s">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="C117" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C118" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="3" t="s">
-        <v>123</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="3" t="s">
-        <v>309</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="3" t="s">
         <v>311</v>
       </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="C122" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="3" t="s">
         <v>313</v>
       </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="C123" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="3" t="s">
         <v>315</v>
       </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="C124" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="3" t="s">
         <v>317</v>
       </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="C125" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="3" t="s">
         <v>319</v>
       </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="C126" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="3" t="s">
         <v>321</v>
       </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="C127" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="3" t="s">
         <v>323</v>
       </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="C128" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="3" t="s">
         <v>325</v>
       </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="C129" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="3" t="s">
         <v>327</v>
       </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="C130" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="3" t="s">
         <v>329</v>
       </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="C131" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="3" t="s">
         <v>331</v>
       </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C132" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B133" s="3" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="3" t="s">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="3" t="s">
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>338</v>
       </c>
+      <c r="B135" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="C135" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="3" t="s">
         <v>340</v>
       </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="C136" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="3" t="s">
         <v>342</v>
       </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="C137" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="3" t="s">
         <v>344</v>
       </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="C138" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="3" t="s">
         <v>346</v>
       </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="C139" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="3" t="s">
         <v>348</v>
       </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="C140" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="3" t="s">
-        <v>222</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="3" t="s">
-        <v>231</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>115</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="3" t="s">
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="3" t="s">
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="3" t="s">
+      <c r="C150" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="C151" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="373">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -319,13 +319,31 @@
     <t xml:space="preserve">COOLING</t>
   </si>
   <si>
+    <t xml:space="preserve">\\V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event value interpreted as temperature in Fahrenheit converted to the current temperature mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event value interpreted as temperature in Celsius converted to the current temperature mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by the current button value plus the offset for \u00B1 event types.  If a placeholder occurs several times in a description/command, all those occurrences are replaced by the value.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value, and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: Commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -1280,10 +1298,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="32:32 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -1382,10 +1400,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="32:32 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1500,13 +1518,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="32:32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1740,6 +1758,30 @@
       </c>
       <c r="B30" s="0" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1761,49 +1803,49 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="32:32 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -1819,1201 +1861,1201 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Buttons" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Options" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Labels" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Commands" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Buttons" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Options" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Labels" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Commands" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="378">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -301,6 +301,9 @@
     <t xml:space="preserve">FILL</t>
   </si>
   <si>
+    <t xml:space="preserve">DISCHARGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">\\R</t>
   </si>
   <si>
@@ -317,6 +320,18 @@
   </si>
   <si>
     <t xml:space="preserve">COOLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL</t>
   </si>
   <si>
     <t xml:space="preserve">\\V</t>
@@ -1261,20 +1276,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,100 +1309,206 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="32:32 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1393,118 +1518,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="32:32 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1514,274 +1639,298 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="32:32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1796,1271 +1945,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="32:32 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="112.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>104</v>
+      <c r="A1" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>105</v>
+      <c r="A2" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>106</v>
+      <c r="A3" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>107</v>
+      <c r="A4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>108</v>
+      <c r="A5" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>109</v>
+      <c r="A6" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>110</v>
+      <c r="A7" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>113</v>
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>116</v>
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>119</v>
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>122</v>
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>124</v>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
+      <c r="C95" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="C118" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="C143" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="C146" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="0" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="0" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>128</v>
+      <c r="C150" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>370</v>
+      <c r="B151" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>132</v>
+      <c r="B152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>372</v>
+      <c r="B153" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="391">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -733,6 +733,12 @@
     <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
   </si>
   <si>
+    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
+  </si>
+  <si>
     <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
   </si>
   <si>
@@ -886,6 +892,32 @@
     <t xml:space="preserve">Artisan Command</t>
   </si>
   <si>
+    <t xml:space="preserve">alarm(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">enables/disables alarm number </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">alarms(&lt;bool&gt;)</t>
   </si>
   <si>
@@ -940,19 +972,19 @@
     <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
   </si>
   <si>
-    <t xml:space="preserve">adjustSV(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increases or decreases the current target SV value by &lt;int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pidSV(&lt;int&gt;)</t>
+    <t xml:space="preserve">adjustSV(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases or decreases the current target SV value by &lt;float&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSV(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
-    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+    <t xml:space="preserve">pidSVC(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV given in C</t>
@@ -1037,6 +1069,120 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ramp(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback ramping per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">activate/deactivate quantification per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setBatchSize(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set the batch size to the given value. If the value is negative, the batch size is taken from the background profile, if any is loaded</t>
   </si>
   <si>
     <t xml:space="preserve">openProperties</t>
@@ -1952,17 +2098,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,17 +2692,17 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="1" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
         <v>247</v>
       </c>
@@ -2581,69 +2728,69 @@
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,57 +2842,57 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,26 +2913,26 @@
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,42 +3065,42 @@
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,57 +3200,57 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C140" s="1" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
         <v>363</v>
       </c>
@@ -3121,93 +3268,141 @@
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="B147" s="3" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>130</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>132</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="3" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="3" t="s">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>378</v>
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="398">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -1071,6 +1071,12 @@
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
   </si>
   <si>
+    <t xml:space="preserve">playbackdropmode(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets playback DROP mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
     <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
   </si>
   <si>
@@ -1318,6 +1324,21 @@
   </si>
   <si>
     <t xml:space="preserve">for YOCTOPUCE RC modules: with r an int in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepper Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: set the target position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rescale(ch,val[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: set the rescale factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: engage (b=1) or disengage (b = 0)</t>
   </si>
   <si>
     <t xml:space="preserve">WebSocket Command</t>
@@ -1572,26 +1593,26 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="126:126 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.73"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1674,21 +1695,21 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="126:126 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1712,7 +1733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1768,7 +1789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1795,22 +1816,22 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="126:126 A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1826,7 +1847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +1871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1858,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1874,7 +1895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -1882,7 +1903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1890,7 +1911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -1906,7 +1927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -1914,7 +1935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -1922,7 +1943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1930,7 +1951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1938,7 +1959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1954,7 +1975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -1962,7 +1983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
@@ -1978,7 +1999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
@@ -1986,7 +2007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
@@ -1994,7 +2015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -2002,7 +2023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -2018,7 +2039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>94</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
@@ -2034,7 +2055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
@@ -2042,7 +2063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
@@ -2050,7 +2071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
@@ -2066,7 +2087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
@@ -2098,56 +2119,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="126:126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
@@ -2166,7 +2187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -2188,7 +2209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -2199,7 +2220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
         <v>129</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
         <v>131</v>
       </c>
@@ -2215,7 +2236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
         <v>133</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
         <v>135</v>
       </c>
@@ -2231,7 +2252,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
         <v>137</v>
       </c>
@@ -2239,7 +2260,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
         <v>139</v>
       </c>
@@ -2247,7 +2268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
         <v>141</v>
       </c>
@@ -2255,7 +2276,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
         <v>143</v>
       </c>
@@ -2263,7 +2284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
         <v>145</v>
       </c>
@@ -2271,7 +2292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
         <v>147</v>
       </c>
@@ -2279,7 +2300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
         <v>149</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
         <v>151</v>
       </c>
@@ -2295,7 +2316,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
         <v>153</v>
       </c>
@@ -2303,7 +2324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
         <v>155</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
         <v>157</v>
       </c>
@@ -2319,7 +2340,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
         <v>159</v>
       </c>
@@ -2327,7 +2348,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
         <v>161</v>
       </c>
@@ -2335,7 +2356,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
         <v>163</v>
       </c>
@@ -2343,7 +2364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
@@ -2351,7 +2372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
         <v>167</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
         <v>169</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>171</v>
       </c>
@@ -2375,7 +2396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -2386,7 +2407,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
         <v>129</v>
       </c>
@@ -2394,7 +2415,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
         <v>175</v>
       </c>
@@ -2402,7 +2423,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
         <v>177</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
         <v>179</v>
       </c>
@@ -2418,7 +2439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
         <v>181</v>
       </c>
@@ -2426,7 +2447,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
         <v>183</v>
       </c>
@@ -2434,7 +2455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
         <v>185</v>
       </c>
@@ -2442,7 +2463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
         <v>187</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
         <v>189</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
         <v>191</v>
       </c>
@@ -2466,7 +2487,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
         <v>193</v>
       </c>
@@ -2474,7 +2495,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
         <v>195</v>
       </c>
@@ -2482,7 +2503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
         <v>197</v>
       </c>
@@ -2490,7 +2511,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
         <v>199</v>
       </c>
@@ -2498,7 +2519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
         <v>201</v>
       </c>
@@ -2506,7 +2527,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
         <v>203</v>
       </c>
@@ -2514,7 +2535,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
         <v>133</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
         <v>205</v>
       </c>
@@ -2530,7 +2551,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
@@ -2538,7 +2559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
         <v>131</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
         <v>207</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
         <v>209</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>211</v>
       </c>
@@ -2570,7 +2591,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>213</v>
       </c>
@@ -2578,7 +2599,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>215</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>218</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>221</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
@@ -2619,7 +2640,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
         <v>226</v>
       </c>
@@ -2627,7 +2648,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
         <v>228</v>
       </c>
@@ -2635,7 +2656,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
         <v>230</v>
       </c>
@@ -2643,7 +2664,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
         <v>232</v>
       </c>
@@ -2651,7 +2672,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
         <v>234</v>
       </c>
@@ -2659,7 +2680,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
         <v>236</v>
       </c>
@@ -2667,7 +2688,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
         <v>238</v>
       </c>
@@ -2675,7 +2696,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
         <v>240</v>
       </c>
@@ -2683,7 +2704,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="s">
         <v>242</v>
       </c>
@@ -2691,7 +2712,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
         <v>244</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>246</v>
       </c>
@@ -2710,7 +2731,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
         <v>249</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
         <v>251</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
         <v>253</v>
       </c>
@@ -2734,7 +2755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
         <v>131</v>
       </c>
@@ -2742,7 +2763,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>255</v>
       </c>
@@ -2753,7 +2774,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
         <v>129</v>
       </c>
@@ -2761,7 +2782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
         <v>131</v>
       </c>
@@ -2769,7 +2790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
         <v>133</v>
       </c>
@@ -2777,7 +2798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
         <v>135</v>
       </c>
@@ -2785,7 +2806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
         <v>137</v>
       </c>
@@ -2793,7 +2814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
         <v>257</v>
       </c>
@@ -2801,7 +2822,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
         <v>259</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
         <v>261</v>
       </c>
@@ -2817,7 +2838,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
         <v>263</v>
       </c>
@@ -2825,7 +2846,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
         <v>265</v>
       </c>
@@ -2833,7 +2854,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="3" t="s">
         <v>267</v>
       </c>
@@ -2841,7 +2862,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
         <v>269</v>
       </c>
@@ -2849,7 +2870,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>271</v>
       </c>
@@ -2857,7 +2878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>272</v>
       </c>
@@ -2865,7 +2886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>273</v>
       </c>
@@ -2873,7 +2894,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>275</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>278</v>
       </c>
@@ -2895,7 +2916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
         <v>279</v>
       </c>
@@ -2903,7 +2924,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
         <v>281</v>
       </c>
@@ -2911,7 +2932,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
         <v>283</v>
       </c>
@@ -2919,7 +2940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
         <v>285</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
         <v>131</v>
       </c>
@@ -2935,7 +2956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
         <v>287</v>
       </c>
@@ -2943,7 +2964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
         <v>289</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
         <v>291</v>
       </c>
@@ -2959,7 +2980,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
         <v>293</v>
       </c>
@@ -2967,7 +2988,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="3" t="s">
         <v>295</v>
       </c>
@@ -2975,7 +2996,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
         <v>297</v>
       </c>
@@ -2983,7 +3004,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
         <v>299</v>
       </c>
@@ -2991,7 +3012,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="3" t="s">
         <v>301</v>
       </c>
@@ -2999,7 +3020,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="3" t="s">
         <v>303</v>
       </c>
@@ -3007,7 +3028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="3" t="s">
         <v>305</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="3" t="s">
         <v>307</v>
       </c>
@@ -3023,7 +3044,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="3" t="s">
         <v>309</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
         <v>311</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="3" t="s">
         <v>313</v>
       </c>
@@ -3047,7 +3068,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="3" t="s">
         <v>315</v>
       </c>
@@ -3055,7 +3076,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="3" t="s">
         <v>317</v>
       </c>
@@ -3063,7 +3084,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
         <v>319</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
         <v>321</v>
       </c>
@@ -3079,7 +3100,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="3" t="s">
         <v>133</v>
       </c>
@@ -3087,7 +3108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
         <v>324</v>
       </c>
@@ -3095,7 +3116,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
         <v>137</v>
       </c>
@@ -3103,7 +3124,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
         <v>326</v>
       </c>
@@ -3111,7 +3132,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="3" t="s">
         <v>328</v>
       </c>
@@ -3119,7 +3140,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
         <v>330</v>
       </c>
@@ -3127,7 +3148,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="3" t="s">
         <v>332</v>
       </c>
@@ -3135,7 +3156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
         <v>334</v>
       </c>
@@ -3143,7 +3164,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="3" t="s">
         <v>336</v>
       </c>
@@ -3151,7 +3172,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
         <v>338</v>
       </c>
@@ -3159,7 +3180,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="3" t="s">
         <v>340</v>
       </c>
@@ -3167,7 +3188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="3" t="s">
         <v>342</v>
       </c>
@@ -3175,7 +3196,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="3" t="s">
         <v>344</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="3" t="s">
         <v>346</v>
       </c>
@@ -3191,7 +3212,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="3" t="s">
         <v>348</v>
       </c>
@@ -3199,7 +3220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
         <v>350</v>
       </c>
@@ -3207,7 +3228,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
         <v>352</v>
       </c>
@@ -3215,7 +3236,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
         <v>354</v>
       </c>
@@ -3223,7 +3244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
         <v>356</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="3" t="s">
         <v>358</v>
       </c>
@@ -3239,7 +3260,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
         <v>360</v>
       </c>
@@ -3247,18 +3268,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="C141" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C141" s="1" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="3" t="s">
         <v>365</v>
       </c>
@@ -3266,7 +3287,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
         <v>367</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="3" t="s">
         <v>369</v>
       </c>
@@ -3282,7 +3303,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
         <v>371</v>
       </c>
@@ -3290,7 +3311,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
         <v>373</v>
       </c>
@@ -3298,7 +3319,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
         <v>375</v>
       </c>
@@ -3306,7 +3327,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
         <v>377</v>
       </c>
@@ -3314,23 +3335,23 @@
         <v>378</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="3" t="s">
         <v>382</v>
       </c>
@@ -3338,71 +3359,106 @@
         <v>383</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C153" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="3" t="s">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="3" t="s">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="3" t="s">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="3" t="s">
+      <c r="C161" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>390</v>
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventbuttons.xlsx
+++ b/doc/help_dialogs/Input_files/eventbuttons.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="400">
   <si>
     <t xml:space="preserve">EVENT CUSTOM BUTTONS</t>
   </si>
@@ -472,97 +472,180 @@
     <t xml:space="preserve">toggles the state of the button</t>
   </si>
   <si>
-    <t xml:space="preserve">read(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readSigned(slaveId,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readBCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32Signed(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32BCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readFloat(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deprecated: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
+    <t xml:space="preserve">read(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(deviceID,register,value) or write([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPRECATED: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoil(deviceID,register,&lt;bool&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">write coil: MODBUS function 5</t>
   </si>
   <si>
-    <t xml:space="preserve">wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
+    <t xml:space="preserve">wcoils(deviceID,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
   </si>
   <si>
     <t xml:space="preserve">write coils: MODBUS function 15</t>
   </si>
   <si>
-    <t xml:space="preserve">mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mwrite(deviceID,register,andMask,orMask) or mwrite(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,andMask,orMask</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,value)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writem(deviceID,register,value) or writem(deviceID,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
   </si>
   <si>
     <t xml:space="preserve">write registers: MODBUS function 16</t>
   </si>
   <si>
-    <t xml:space="preserve">writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit BCD encoded value v to register r of slave s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeWord(slaveId,register,value) or writeWord([slaveId,register,value],..,[slaveId,register,value])</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">writeBCD(deviceID,register,value) or writeBCD([</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">],..,[</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit BCD encoded value to register of device with DeviceID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeWord(deviceID,register,value) or writeWord([deviceID,register,value],..,[deviceID,register,value])</t>
   </si>
   <si>
     <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
-    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
+    <t xml:space="preserve">writeLong(deviceID,register,value) or writeLong([deviceID,register,value],..,[deviceID,register,value])</t>
   </si>
   <si>
     <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
-    <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
+    <t xml:space="preserve">writeSingle(deviceID,register,value) or writeSingle([deviceID,register,value],..,[deviceID,register,value])</t>
   </si>
   <si>
     <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
@@ -1149,6 +1232,42 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">slider(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">show/hide slider per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
   </si>
   <si>
@@ -1366,7 +1485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1402,6 +1521,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2119,17 +2245,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.82"/>
   </cols>
   <sheetData>
@@ -3277,17 +3403,17 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="C142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C142" s="1" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
         <v>367</v>
       </c>
@@ -3345,15 +3471,15 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="3" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="3" t="s">
-        <v>382</v>
+        <v>238</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>383</v>
@@ -3369,26 +3495,26 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="B155" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>390</v>
@@ -3396,69 +3522,77 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="3" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="B157" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="3" t="s">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>132</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>395</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="3" t="s">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>397</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
